--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 4 (27, 47, 13, 25, 5)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(27, 47, 13, 25, 5)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9989160742618307</v>
+        <v>4.02806892054216E-05</v>
       </c>
       <c r="E2">
-        <v>0.9989160742618307</v>
+        <v>4.02806892054216E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003759139307150298</v>
+        <v>0.7439110769338692</v>
       </c>
       <c r="E3">
-        <v>0.003759139307150298</v>
+        <v>0.7439110769338692</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999995683311174</v>
+        <v>0.9999999979770804</v>
       </c>
       <c r="E4">
-        <v>0.9999995683311174</v>
+        <v>0.9999999979770804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.999999994574239</v>
+        <v>0.9999995740085507</v>
       </c>
       <c r="E5">
-        <v>0.999999994574239</v>
+        <v>0.9999995740085507</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999974216</v>
+        <v>0.9999999996511157</v>
       </c>
       <c r="E6">
-        <v>0.9999999999974216</v>
+        <v>0.9999999996511157</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999978582</v>
+        <v>0.9999995620398068</v>
       </c>
       <c r="E7">
-        <v>2.141842259106852E-12</v>
+        <v>4.379601932225086E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.300074106898269E-06</v>
+        <v>4.448495153399532E-07</v>
       </c>
       <c r="E8">
-        <v>0.9999986999258931</v>
+        <v>0.9999995551504847</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03107171100193089</v>
+        <v>0.4272616878073049</v>
       </c>
       <c r="E9">
-        <v>0.9689282889980692</v>
+        <v>0.5727383121926951</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999025313515</v>
+        <v>0.9999999968679343</v>
       </c>
       <c r="E10">
-        <v>9.746864848558801E-08</v>
+        <v>3.132065717892374E-09</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9275742960326874</v>
+        <v>0.6527447168488999</v>
       </c>
       <c r="E11">
-        <v>0.07242570396731263</v>
+        <v>0.3472552831511001</v>
       </c>
       <c r="F11">
-        <v>8.430220603942871</v>
+        <v>7.372857570648193</v>
       </c>
       <c r="G11">
         <v>0.4</v>
